--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_007.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_007.xlsx
@@ -1031,7 +1031,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>20</v>
